--- a/Instances/13_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/13_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -36852,7 +36852,7 @@
         <v>0.001188</v>
       </c>
       <c r="E2" t="n">
-        <v>16.553592</v>
+        <v>37.343592</v>
       </c>
       <c r="F2" t="n">
         <v>0.004752</v>
@@ -36886,7 +36886,7 @@
         <v>0.001088</v>
       </c>
       <c r="E3" t="n">
-        <v>16.435328</v>
+        <v>41.33964800000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.004352000000000001</v>
@@ -36920,7 +36920,7 @@
         <v>0.00108</v>
       </c>
       <c r="E4" t="n">
-        <v>8.581680000000002</v>
+        <v>22.47912000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.004320000000000001</v>
@@ -36954,7 +36954,7 @@
         <v>0.001292</v>
       </c>
       <c r="E5" t="n">
-        <v>19.516952</v>
+        <v>49.090832</v>
       </c>
       <c r="F5" t="n">
         <v>0.005168</v>
@@ -36988,7 +36988,7 @@
         <v>0.001016</v>
       </c>
       <c r="E6" t="n">
-        <v>15.347696</v>
+        <v>38.603936</v>
       </c>
       <c r="F6" t="n">
         <v>0.004064</v>
@@ -37022,7 +37022,7 @@
         <v>0.000796</v>
       </c>
       <c r="E7" t="n">
-        <v>12.024376</v>
+        <v>30.244816</v>
       </c>
       <c r="F7" t="n">
         <v>0.003184</v>
@@ -37056,7 +37056,7 @@
         <v>0.001068</v>
       </c>
       <c r="E8" t="n">
-        <v>21.65904</v>
+        <v>39.49464</v>
       </c>
       <c r="F8" t="n">
         <v>0.004272</v>
@@ -37090,7 +37090,7 @@
         <v>0.000928</v>
       </c>
       <c r="E9" t="n">
-        <v>18.81984</v>
+        <v>34.31744</v>
       </c>
       <c r="F9" t="n">
         <v>0.003712</v>
@@ -37124,7 +37124,7 @@
         <v>0.0009480000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>18.209184</v>
+        <v>31.338984</v>
       </c>
       <c r="F10" t="n">
         <v>0.003792</v>
@@ -37158,7 +37158,7 @@
         <v>0.001104</v>
       </c>
       <c r="E11" t="n">
-        <v>21.205632</v>
+        <v>36.496032</v>
       </c>
       <c r="F11" t="n">
         <v>0.004416</v>
@@ -37192,7 +37192,7 @@
         <v>0.0009960000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>20.19888</v>
+        <v>36.83208</v>
       </c>
       <c r="F12" t="n">
         <v>0.003984000000000001</v>
@@ -37226,7 +37226,7 @@
         <v>0.000796</v>
       </c>
       <c r="E13" t="n">
-        <v>18.52292</v>
+        <v>31.209568</v>
       </c>
       <c r="F13" t="n">
         <v>0.003184</v>
@@ -37260,7 +37260,7 @@
         <v>0.0008560000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>17.35968</v>
+        <v>31.65488</v>
       </c>
       <c r="F14" t="n">
         <v>0.003424</v>
@@ -37294,7 +37294,7 @@
         <v>0.000952</v>
       </c>
       <c r="E15" t="n">
-        <v>19.30656</v>
+        <v>35.20496</v>
       </c>
       <c r="F15" t="n">
         <v>0.003808</v>
@@ -37328,7 +37328,7 @@
         <v>0.001</v>
       </c>
       <c r="E16" t="n">
-        <v>19.364</v>
+        <v>35.57</v>
       </c>
       <c r="F16" t="n">
         <v>0.004</v>
@@ -37362,7 +37362,7 @@
         <v>0.000936</v>
       </c>
       <c r="E17" t="n">
-        <v>8.169408000000001</v>
+        <v>18.976464</v>
       </c>
       <c r="F17" t="n">
         <v>0.003744</v>
@@ -37396,7 +37396,7 @@
         <v>0.0008240000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>7.191872000000001</v>
+        <v>16.705776</v>
       </c>
       <c r="F18" t="n">
         <v>0.003296</v>
@@ -37430,7 +37430,7 @@
         <v>0.001032</v>
       </c>
       <c r="E19" t="n">
-        <v>10.2168</v>
+        <v>27.694752</v>
       </c>
       <c r="F19" t="n">
         <v>0.004128000000000001</v>
@@ -37464,7 +37464,7 @@
         <v>0.000928</v>
       </c>
       <c r="E20" t="n">
-        <v>12.661632</v>
+        <v>25.030016</v>
       </c>
       <c r="F20" t="n">
         <v>0.003712</v>
@@ -37498,7 +37498,7 @@
         <v>0.000976</v>
       </c>
       <c r="E21" t="n">
-        <v>12.730944</v>
+        <v>25.459936</v>
       </c>
       <c r="F21" t="n">
         <v>0.003904</v>
@@ -37532,7 +37532,7 @@
         <v>0.0008320000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>11.827712</v>
+        <v>27.163136</v>
       </c>
       <c r="F22" t="n">
         <v>0.003328</v>
@@ -37566,7 +37566,7 @@
         <v>0.001188</v>
       </c>
       <c r="E23" t="n">
-        <v>17.601408</v>
+        <v>39.838392</v>
       </c>
       <c r="F23" t="n">
         <v>0.004752</v>
@@ -37600,7 +37600,7 @@
         <v>0.000812</v>
       </c>
       <c r="E24" t="n">
-        <v>11.543392</v>
+        <v>26.510176</v>
       </c>
       <c r="F24" t="n">
         <v>0.003248</v>
@@ -37634,7 +37634,7 @@
         <v>0.001068</v>
       </c>
       <c r="E25" t="n">
-        <v>19.535856</v>
+        <v>33.800064</v>
       </c>
       <c r="F25" t="n">
         <v>0.004272</v>
@@ -37668,7 +37668,7 @@
         <v>0.000668</v>
       </c>
       <c r="E26" t="n">
-        <v>7.013999999999999</v>
+        <v>18.518296</v>
       </c>
       <c r="F26" t="n">
         <v>0.002672</v>
@@ -37702,7 +37702,7 @@
         <v>0.000772</v>
       </c>
       <c r="E27" t="n">
-        <v>7.6428</v>
+        <v>20.717392</v>
       </c>
       <c r="F27" t="n">
         <v>0.003088</v>
@@ -37736,7 +37736,7 @@
         <v>0.000992</v>
       </c>
       <c r="E28" t="n">
-        <v>13.534848</v>
+        <v>26.756224</v>
       </c>
       <c r="F28" t="n">
         <v>0.003968</v>
@@ -37770,7 +37770,7 @@
         <v>0.001068</v>
       </c>
       <c r="E29" t="n">
-        <v>15.182688</v>
+        <v>34.868064</v>
       </c>
       <c r="F29" t="n">
         <v>0.004272</v>
@@ -37804,7 +37804,7 @@
         <v>0.000812</v>
       </c>
       <c r="E30" t="n">
-        <v>12.030592</v>
+        <v>27.229608</v>
       </c>
       <c r="F30" t="n">
         <v>0.003248</v>
@@ -37838,7 +37838,7 @@
         <v>0.001104</v>
       </c>
       <c r="E31" t="n">
-        <v>15.694464</v>
+        <v>36.043392</v>
       </c>
       <c r="F31" t="n">
         <v>0.004416</v>
@@ -37872,7 +37872,7 @@
         <v>0.00068</v>
       </c>
       <c r="E32" t="n">
-        <v>15.20072</v>
+        <v>25.70264</v>
       </c>
       <c r="F32" t="n">
         <v>0.00272</v>
@@ -37906,7 +37906,7 @@
         <v>0.0008</v>
       </c>
       <c r="E33" t="n">
-        <v>6.1488</v>
+        <v>8.3264</v>
       </c>
       <c r="F33" t="n">
         <v>0.0032</v>
@@ -37940,7 +37940,7 @@
         <v>0.001168</v>
       </c>
       <c r="E34" t="n">
-        <v>15.270432</v>
+        <v>23.525856</v>
       </c>
       <c r="F34" t="n">
         <v>0.004672</v>
@@ -37974,7 +37974,7 @@
         <v>0.001104</v>
       </c>
       <c r="E35" t="n">
-        <v>14.433696</v>
+        <v>22.236768</v>
       </c>
       <c r="F35" t="n">
         <v>0.004416</v>
@@ -38008,7 +38008,7 @@
         <v>0.0007</v>
       </c>
       <c r="E36" t="n">
-        <v>5.7302</v>
+        <v>6.0578</v>
       </c>
       <c r="F36" t="n">
         <v>0.0028</v>
@@ -38042,7 +38042,7 @@
         <v>0.001052</v>
       </c>
       <c r="E37" t="n">
-        <v>15.586432</v>
+        <v>35.277768</v>
       </c>
       <c r="F37" t="n">
         <v>0.004208</v>
@@ -38076,7 +38076,7 @@
         <v>0.001312</v>
       </c>
       <c r="E38" t="n">
-        <v>18.651392</v>
+        <v>42.834176</v>
       </c>
       <c r="F38" t="n">
         <v>0.005248</v>
@@ -38110,7 +38110,7 @@
         <v>0.0008960000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>5.836544000000001</v>
+        <v>3.446016</v>
       </c>
       <c r="F39" t="n">
         <v>0.003584</v>
@@ -38144,7 +38144,7 @@
         <v>0.000844</v>
       </c>
       <c r="E40" t="n">
-        <v>6.402584</v>
+        <v>6.556192</v>
       </c>
       <c r="F40" t="n">
         <v>0.003376</v>
@@ -38178,7 +38178,7 @@
         <v>0.000796</v>
       </c>
       <c r="E41" t="n">
-        <v>6.038456</v>
+        <v>6.183328</v>
       </c>
       <c r="F41" t="n">
         <v>0.003184</v>
@@ -38212,7 +38212,7 @@
         <v>0.001292</v>
       </c>
       <c r="E42" t="n">
-        <v>19.142272</v>
+        <v>43.325928</v>
       </c>
       <c r="F42" t="n">
         <v>0.005168</v>
@@ -38246,7 +38246,7 @@
         <v>0.0009119999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>13.512192</v>
+        <v>30.583008</v>
       </c>
       <c r="F43" t="n">
         <v>0.003648</v>
@@ -38280,7 +38280,7 @@
         <v>0.0007920000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>11.259072</v>
+        <v>25.857216</v>
       </c>
       <c r="F44" t="n">
         <v>0.003168</v>
@@ -38314,7 +38314,7 @@
         <v>0.00102</v>
       </c>
       <c r="E45" t="n">
-        <v>19.75128</v>
+        <v>36.2814</v>
       </c>
       <c r="F45" t="n">
         <v>0.00408</v>
@@ -38348,7 +38348,7 @@
         <v>0.0008240000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>12.208384</v>
+        <v>27.632016</v>
       </c>
       <c r="F46" t="n">
         <v>0.003296</v>
@@ -38382,7 +38382,7 @@
         <v>0.0008480000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>16.929472</v>
+        <v>30.91468800000001</v>
       </c>
       <c r="F47" t="n">
         <v>0.003392</v>
@@ -38416,7 +38416,7 @@
         <v>0.00104</v>
       </c>
       <c r="E48" t="n">
-        <v>20.76256</v>
+        <v>37.91424000000001</v>
       </c>
       <c r="F48" t="n">
         <v>0.004160000000000001</v>
@@ -38450,7 +38450,7 @@
         <v>0.0009199999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>17.81488</v>
+        <v>32.7244</v>
       </c>
       <c r="F49" t="n">
         <v>0.00368</v>
@@ -38484,7 +38484,7 @@
         <v>0.000604</v>
       </c>
       <c r="E50" t="n">
-        <v>8.948864</v>
+        <v>20.254536</v>
       </c>
       <c r="F50" t="n">
         <v>0.002416</v>
@@ -38518,7 +38518,7 @@
         <v>0.001312</v>
       </c>
       <c r="E51" t="n">
-        <v>19.438592</v>
+        <v>43.996608</v>
       </c>
       <c r="F51" t="n">
         <v>0.005248</v>
@@ -38552,7 +38552,7 @@
         <v>0.0007480000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>10.633568</v>
+        <v>24.420704</v>
       </c>
       <c r="F52" t="n">
         <v>0.002992</v>
@@ -38586,7 +38586,7 @@
         <v>0.000916</v>
       </c>
       <c r="E53" t="n">
-        <v>18.287024</v>
+        <v>33.393696</v>
       </c>
       <c r="F53" t="n">
         <v>0.003664</v>
@@ -38620,7 +38620,7 @@
         <v>0.0011</v>
       </c>
       <c r="E54" t="n">
-        <v>21.9604</v>
+        <v>40.1016</v>
       </c>
       <c r="F54" t="n">
         <v>0.0044</v>
@@ -38654,7 +38654,7 @@
         <v>0.0007920000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>15.336288</v>
+        <v>28.17144</v>
       </c>
       <c r="F55" t="n">
         <v>0.003168</v>
@@ -38688,7 +38688,7 @@
         <v>0.000732</v>
       </c>
       <c r="E56" t="n">
-        <v>10.406112</v>
+        <v>23.898336</v>
       </c>
       <c r="F56" t="n">
         <v>0.002928</v>
@@ -38722,7 +38722,7 @@
         <v>0.001016</v>
       </c>
       <c r="E57" t="n">
-        <v>19.673824</v>
+        <v>36.13912</v>
       </c>
       <c r="F57" t="n">
         <v>0.004064</v>
@@ -38756,7 +38756,7 @@
         <v>0.0008320000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>16.610048</v>
+        <v>30.331392</v>
       </c>
       <c r="F58" t="n">
         <v>0.003328</v>
@@ -38790,7 +38790,7 @@
         <v>0.0009000000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>17.4276</v>
+        <v>32.01300000000001</v>
       </c>
       <c r="F59" t="n">
         <v>0.0036</v>
@@ -38824,7 +38824,7 @@
         <v>0.001064</v>
       </c>
       <c r="E60" t="n">
-        <v>13.6724</v>
+        <v>33.754336</v>
       </c>
       <c r="F60" t="n">
         <v>0.004256</v>
@@ -38858,7 +38858,7 @@
         <v>0.0009119999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>5.95536</v>
+        <v>20.28288</v>
       </c>
       <c r="F61" t="n">
         <v>0.003648</v>
@@ -38892,7 +38892,7 @@
         <v>0.000992</v>
       </c>
       <c r="E62" t="n">
-        <v>7.640384</v>
+        <v>28.571584</v>
       </c>
       <c r="F62" t="n">
         <v>0.003968</v>
@@ -38926,7 +38926,7 @@
         <v>0.000992</v>
       </c>
       <c r="E63" t="n">
-        <v>3.358912</v>
+        <v>22.80608</v>
       </c>
       <c r="F63" t="n">
         <v>0.003968</v>
@@ -38960,7 +38960,7 @@
         <v>0.000952</v>
       </c>
       <c r="E64" t="n">
-        <v>6.21656</v>
+        <v>21.17248</v>
       </c>
       <c r="F64" t="n">
         <v>0.003808</v>
@@ -38994,7 +38994,7 @@
         <v>0.001176</v>
       </c>
       <c r="E65" t="n">
-        <v>9.057551999999999</v>
+        <v>33.871152</v>
       </c>
       <c r="F65" t="n">
         <v>0.004704</v>
@@ -39028,7 +39028,7 @@
         <v>0.000812</v>
       </c>
       <c r="E66" t="n">
-        <v>4.431896</v>
+        <v>14.874216</v>
       </c>
       <c r="F66" t="n">
         <v>0.003248</v>
@@ -39062,7 +39062,7 @@
         <v>0.0008560000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>6.592912000000001</v>
+        <v>24.654512</v>
       </c>
       <c r="F67" t="n">
         <v>0.003424</v>
@@ -39096,7 +39096,7 @@
         <v>0.001076</v>
       </c>
       <c r="E68" t="n">
-        <v>8.287352</v>
+        <v>30.990952</v>
       </c>
       <c r="F68" t="n">
         <v>0.004304000000000001</v>
@@ -39130,7 +39130,7 @@
         <v>0.00062</v>
       </c>
       <c r="E69" t="n">
-        <v>7.967</v>
+        <v>19.66888</v>
       </c>
       <c r="F69" t="n">
         <v>0.00248</v>
@@ -39164,7 +39164,7 @@
         <v>0.000672</v>
       </c>
       <c r="E70" t="n">
-        <v>5.578944</v>
+        <v>19.950336</v>
       </c>
       <c r="F70" t="n">
         <v>0.002688</v>
@@ -39198,7 +39198,7 @@
         <v>0.000828</v>
       </c>
       <c r="E71" t="n">
-        <v>6.377256</v>
+        <v>23.848056</v>
       </c>
       <c r="F71" t="n">
         <v>0.003312</v>
@@ -39232,7 +39232,7 @@
         <v>0.00112</v>
       </c>
       <c r="E72" t="n">
-        <v>3.79232</v>
+        <v>25.7488</v>
       </c>
       <c r="F72" t="n">
         <v>0.00448</v>
@@ -39266,7 +39266,7 @@
         <v>0.000764</v>
       </c>
       <c r="E73" t="n">
-        <v>1.767896</v>
+        <v>14.567952</v>
       </c>
       <c r="F73" t="n">
         <v>0.003056</v>
@@ -39300,7 +39300,7 @@
         <v>0.001256</v>
       </c>
       <c r="E74" t="n">
-        <v>16.1396</v>
+        <v>39.845344</v>
       </c>
       <c r="F74" t="n">
         <v>0.005024000000000001</v>
@@ -39334,7 +39334,7 @@
         <v>0.000892</v>
       </c>
       <c r="E75" t="n">
-        <v>7.405384</v>
+        <v>26.481696</v>
       </c>
       <c r="F75" t="n">
         <v>0.003568</v>
@@ -39368,7 +39368,7 @@
         <v>0.00072</v>
       </c>
       <c r="E76" t="n">
-        <v>5.977440000000001</v>
+        <v>21.37536</v>
       </c>
       <c r="F76" t="n">
         <v>0.00288</v>
@@ -39402,7 +39402,7 @@
         <v>0.0009000000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>6.931800000000001</v>
+        <v>25.9218</v>
       </c>
       <c r="F77" t="n">
         <v>0.0036</v>
@@ -39436,7 +39436,7 @@
         <v>0.00086</v>
       </c>
       <c r="E78" t="n">
-        <v>11.051</v>
+        <v>27.28264</v>
       </c>
       <c r="F78" t="n">
         <v>0.00344</v>
@@ -39470,7 +39470,7 @@
         <v>0.000916</v>
       </c>
       <c r="E79" t="n">
-        <v>10.724528</v>
+        <v>17.603688</v>
       </c>
       <c r="F79" t="n">
         <v>0.003664</v>
@@ -39504,7 +39504,7 @@
         <v>0.00096</v>
       </c>
       <c r="E80" t="n">
-        <v>5.17248</v>
+        <v>9.34464</v>
       </c>
       <c r="F80" t="n">
         <v>0.00384</v>
@@ -39538,7 +39538,7 @@
         <v>0.0007040000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>4.618240000000001</v>
+        <v>11.472384</v>
       </c>
       <c r="F81" t="n">
         <v>0.002816</v>
@@ -39572,7 +39572,7 @@
         <v>0.000772</v>
       </c>
       <c r="E82" t="n">
-        <v>4.159536</v>
+        <v>7.514648</v>
       </c>
       <c r="F82" t="n">
         <v>0.003088</v>
@@ -39606,7 +39606,7 @@
         <v>0.000796</v>
       </c>
       <c r="E83" t="n">
-        <v>5.221760000000001</v>
+        <v>12.971616</v>
       </c>
       <c r="F83" t="n">
         <v>0.003184</v>
@@ -39640,7 +39640,7 @@
         <v>0.00076</v>
       </c>
       <c r="E84" t="n">
-        <v>7.192640000000001</v>
+        <v>6.637840000000001</v>
       </c>
       <c r="F84" t="n">
         <v>0.00304</v>
@@ -39674,7 +39674,7 @@
         <v>0.000768</v>
       </c>
       <c r="E85" t="n">
-        <v>5.03808</v>
+        <v>12.515328</v>
       </c>
       <c r="F85" t="n">
         <v>0.003072</v>
@@ -39708,7 +39708,7 @@
         <v>0.001052</v>
       </c>
       <c r="E86" t="n">
-        <v>6.90112</v>
+        <v>17.143392</v>
       </c>
       <c r="F86" t="n">
         <v>0.004208</v>
@@ -39742,7 +39742,7 @@
         <v>0.00068</v>
       </c>
       <c r="E87" t="n">
-        <v>4.460800000000001</v>
+        <v>11.08128</v>
       </c>
       <c r="F87" t="n">
         <v>0.00272</v>
@@ -39776,7 +39776,7 @@
         <v>0.001092</v>
       </c>
       <c r="E88" t="n">
-        <v>5.883696</v>
+        <v>10.629528</v>
       </c>
       <c r="F88" t="n">
         <v>0.004368</v>
@@ -39810,7 +39810,7 @@
         <v>0.000696</v>
       </c>
       <c r="E89" t="n">
-        <v>3.750048</v>
+        <v>6.774864</v>
       </c>
       <c r="F89" t="n">
         <v>0.002784</v>
@@ -39844,7 +39844,7 @@
         <v>0.0008680000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>5.69408</v>
+        <v>14.144928</v>
       </c>
       <c r="F90" t="n">
         <v>0.003472</v>
@@ -39878,7 +39878,7 @@
         <v>0.001256</v>
       </c>
       <c r="E91" t="n">
-        <v>14.705248</v>
+        <v>24.137808</v>
       </c>
       <c r="F91" t="n">
         <v>0.005024000000000001</v>
@@ -39912,7 +39912,7 @@
         <v>0.001136</v>
       </c>
       <c r="E92" t="n">
-        <v>4.902976000000001</v>
+        <v>6.602432</v>
       </c>
       <c r="F92" t="n">
         <v>0.004544</v>
@@ -39946,7 +39946,7 @@
         <v>0.0008680000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>3.746288</v>
+        <v>5.044816</v>
       </c>
       <c r="F93" t="n">
         <v>0.003472</v>
@@ -39980,7 +39980,7 @@
         <v>0.000812</v>
       </c>
       <c r="E94" t="n">
-        <v>4.456256</v>
+        <v>10.047688</v>
       </c>
       <c r="F94" t="n">
         <v>0.003248</v>
@@ -40014,7 +40014,7 @@
         <v>0.00086</v>
       </c>
       <c r="E95" t="n">
-        <v>10.06888</v>
+        <v>16.52748</v>
       </c>
       <c r="F95" t="n">
         <v>0.00344</v>
@@ -40048,7 +40048,7 @@
         <v>0.000944</v>
       </c>
       <c r="E96" t="n">
-        <v>6.19264</v>
+        <v>15.383424</v>
       </c>
       <c r="F96" t="n">
         <v>0.003776</v>
@@ -40082,7 +40082,7 @@
         <v>0.001032</v>
       </c>
       <c r="E97" t="n">
-        <v>12.082656</v>
+        <v>19.832976</v>
       </c>
       <c r="F97" t="n">
         <v>0.004128000000000001</v>
@@ -40116,7 +40116,7 @@
         <v>0.0007040000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>1.579776</v>
+        <v>7.380736000000001</v>
       </c>
       <c r="F98" t="n">
         <v>0.002816</v>
@@ -40150,7 +40150,7 @@
         <v>0.000992</v>
       </c>
       <c r="E99" t="n">
-        <v>2.226048</v>
+        <v>10.400128</v>
       </c>
       <c r="F99" t="n">
         <v>0.003968</v>
@@ -40178,13 +40178,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>435</v>
+        <v>956</v>
       </c>
       <c r="D100" t="n">
         <v>0.00868</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6438</v>
+        <v>9.90564</v>
       </c>
       <c r="F100" t="n">
         <v>0.03472</v>
@@ -40212,13 +40212,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="D101" t="n">
         <v>0.009575999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6092480000000001</v>
+        <v>1.010272</v>
       </c>
       <c r="F101" t="n">
         <v>0.038304</v>
@@ -40246,13 +40246,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>7165</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0.05685999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>11.647032</v>
+        <v>6.876648</v>
       </c>
       <c r="F102" t="n">
         <v>0.22744</v>
@@ -40280,13 +40280,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1711</v>
+        <v>10378</v>
       </c>
       <c r="D103" t="n">
         <v>0.06807200000000002</v>
       </c>
       <c r="E103" t="n">
-        <v>2.105848</v>
+        <v>23.061064</v>
       </c>
       <c r="F103" t="n">
         <v>0.2722880000000001</v>
@@ -40314,13 +40314,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>6474</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>0.07939599999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>9.115392</v>
+        <v>12.274944</v>
       </c>
       <c r="F104" t="n">
         <v>0.317584</v>
@@ -40348,13 +40348,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>898</v>
+        <v>472</v>
       </c>
       <c r="D105" t="n">
         <v>0.0334</v>
       </c>
       <c r="E105" t="n">
-        <v>1.2408</v>
+        <v>1.832248</v>
       </c>
       <c r="F105" t="n">
         <v>0.1336</v>
@@ -40382,13 +40382,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>4485</v>
+        <v>3341</v>
       </c>
       <c r="D106" t="n">
         <v>0.003392</v>
       </c>
       <c r="E106" t="n">
-        <v>5.728840000000001</v>
+        <v>4.268848</v>
       </c>
       <c r="F106" t="n">
         <v>0.013568</v>
@@ -40416,13 +40416,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>147</v>
+        <v>2722</v>
       </c>
       <c r="D107" t="n">
         <v>0.07328</v>
       </c>
       <c r="E107" t="n">
-        <v>1.401712</v>
+        <v>7.848152000000002</v>
       </c>
       <c r="F107" t="n">
         <v>0.29312</v>
@@ -40450,13 +40450,13 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1607</v>
+        <v>4749</v>
       </c>
       <c r="D108" t="n">
         <v>0.08216000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>2.148288</v>
+        <v>7.859688</v>
       </c>
       <c r="F108" t="n">
         <v>0.32864</v>
@@ -40484,13 +40484,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>5624</v>
+        <v>911</v>
       </c>
       <c r="D109" t="n">
         <v>0.030264</v>
       </c>
       <c r="E109" t="n">
-        <v>9.575280000000001</v>
+        <v>5.434920000000001</v>
       </c>
       <c r="F109" t="n">
         <v>0.121056</v>
@@ -40519,7 +40519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE4"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41368,7 +41368,7 @@
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -41377,25 +41377,25 @@
         <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>640</v>
+        <v>8001</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3690</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="DB2" t="n">
-        <v>2918</v>
+        <v>997</v>
       </c>
       <c r="DC2" t="n">
-        <v>147</v>
+        <v>2722</v>
       </c>
       <c r="DD2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>5624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -41697,34 +41697,34 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="CX3" t="n">
-        <v>7165</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1071</v>
+        <v>2377</v>
       </c>
       <c r="CZ3" t="n">
-        <v>2784</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>516</v>
+        <v>71</v>
       </c>
       <c r="DB3" t="n">
-        <v>1567</v>
+        <v>2344</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>1244</v>
+        <v>4749</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="4">
@@ -42026,16 +42026,16 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>1734</v>
       </c>
       <c r="CW4" t="n">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="CX4" t="n">
-        <v>2606</v>
+        <v>1002</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="CZ4" t="n">
         <v>0</v>
@@ -42047,13 +42047,671 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>1611</v>
+        <v>442</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>719</v>
       </c>
       <c r="DE4" t="n">
-        <v>2096</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>947</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>234</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>2581</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>4149</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>8717</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>613</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>3380</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>3055</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>2185</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>183</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>243</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>3299</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>415</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -42067,7 +42725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE4"/>
+  <dimension ref="A1:DE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42916,7 +43574,7 @@
         <v>0</v>
       </c>
       <c r="CV2" t="n">
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -42925,25 +43583,25 @@
         <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>80</v>
+        <v>1000.125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>461.25</v>
+        <v>0</v>
       </c>
       <c r="DA2" t="n">
-        <v>47.75</v>
+        <v>50.125</v>
       </c>
       <c r="DB2" t="n">
-        <v>364.75</v>
+        <v>124.625</v>
       </c>
       <c r="DC2" t="n">
-        <v>18.375</v>
+        <v>340.25</v>
       </c>
       <c r="DD2" t="n">
-        <v>45.375</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -43245,34 +43903,34 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>81.5625</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>0</v>
+        <v>89.4375</v>
       </c>
       <c r="CX3" t="n">
-        <v>1343.4375</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>200.8125</v>
+        <v>445.6875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>96.75</v>
+        <v>13.3125</v>
       </c>
       <c r="DB3" t="n">
-        <v>293.8125</v>
+        <v>439.5</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>233.25</v>
+        <v>890.4375</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>170.8125</v>
       </c>
     </row>
     <row r="4">
@@ -43574,16 +44232,16 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>379.3125</v>
       </c>
       <c r="CW4" t="n">
-        <v>103.25</v>
+        <v>16.1875</v>
       </c>
       <c r="CX4" t="n">
-        <v>570.0625</v>
+        <v>219.1875</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="CZ4" t="n">
         <v>0</v>
@@ -43595,13 +44253,671 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>352.40625</v>
+        <v>96.6875</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>157.28125</v>
       </c>
       <c r="DE4" t="n">
-        <v>458.5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>221.953125</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>54.84375</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>604.921875</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>972.421875</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>2043.046875</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>143.671875</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>792.1875</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>392.34375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>739.8828125</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>529.1796875</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>44.3203125</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>58.8515625</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>798.9765625</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>100.5078125</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>434.96875</v>
       </c>
     </row>
   </sheetData>
@@ -43633,7 +44949,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>90050</v>
+        <v>218350</v>
       </c>
     </row>
     <row r="3">
@@ -43641,7 +44957,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16619220</v>
+        <v>12849780</v>
       </c>
     </row>
   </sheetData>
@@ -43681,7 +44997,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -43694,7 +45010,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -43707,7 +45023,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -43720,7 +45036,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -43733,7 +45049,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -43746,7 +45062,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -43759,7 +45075,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -43772,7 +45088,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -43785,7 +45101,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -43798,7 +45114,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -43811,7 +45127,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -43824,7 +45140,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -43837,7 +45153,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -43850,7 +45166,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -43863,7 +45179,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -43876,7 +45192,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -43889,7 +45205,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -43902,7 +45218,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -43915,7 +45231,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -43928,7 +45244,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -43941,7 +45257,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -43954,7 +45270,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -43967,7 +45283,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -43980,7 +45296,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -43993,7 +45309,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -44006,7 +45322,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -44019,7 +45335,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -44032,7 +45348,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -44045,7 +45361,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -44058,7 +45374,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -44071,7 +45387,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -44084,7 +45400,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -44097,7 +45413,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -44110,7 +45426,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -44123,7 +45439,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -44136,7 +45452,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -44149,7 +45465,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -44162,7 +45478,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -44175,7 +45491,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -44188,7 +45504,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -44201,7 +45517,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -44214,7 +45530,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -44227,7 +45543,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -44240,7 +45556,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -44253,7 +45569,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -44266,7 +45582,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -44279,7 +45595,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -44292,7 +45608,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -44305,7 +45621,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -44318,7 +45634,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -44331,7 +45647,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -44344,7 +45660,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -44357,7 +45673,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -44370,7 +45686,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -44383,7 +45699,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -44396,7 +45712,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -44409,7 +45725,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -44422,7 +45738,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -44435,7 +45751,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -44448,7 +45764,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -44461,7 +45777,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -44474,7 +45790,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -44487,7 +45803,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -44500,7 +45816,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -44513,7 +45829,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -44526,7 +45842,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -44539,7 +45855,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -44552,7 +45868,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -44565,7 +45881,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -44578,7 +45894,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -44591,7 +45907,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -44604,7 +45920,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -44617,7 +45933,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -44630,7 +45946,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -44643,7 +45959,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -44656,7 +45972,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -44669,7 +45985,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -44682,7 +45998,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -44695,7 +46011,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -44708,7 +46024,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -44721,7 +46037,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -44734,7 +46050,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -44747,7 +46063,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -44760,7 +46076,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -44773,7 +46089,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -44786,7 +46102,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -44799,7 +46115,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -44812,7 +46128,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -44825,7 +46141,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -44838,7 +46154,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -44851,7 +46167,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -44864,7 +46180,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -44877,7 +46193,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -44890,7 +46206,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -44903,7 +46219,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -44916,7 +46232,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -44929,7 +46245,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -44942,7 +46258,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -44952,7 +46268,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -44965,7 +46281,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
@@ -44978,7 +46294,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -44991,7 +46307,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -45004,7 +46320,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -45017,7 +46333,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -45030,7 +46346,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -45043,7 +46359,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -45056,7 +46372,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -45069,7 +46385,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
